--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/App-Tnfrsf21.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/App-Tnfrsf21.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>96.62005599999999</v>
+        <v>89.38217433333334</v>
       </c>
       <c r="H2">
-        <v>289.860168</v>
+        <v>268.146523</v>
       </c>
       <c r="I2">
-        <v>0.2116037895476247</v>
+        <v>0.2143552015363441</v>
       </c>
       <c r="J2">
-        <v>0.2183905833651517</v>
+        <v>0.2175965347165783</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>11.465689</v>
+        <v>4.631270333333333</v>
       </c>
       <c r="N2">
-        <v>34.397067</v>
+        <v>13.893811</v>
       </c>
       <c r="O2">
-        <v>0.1125836808441207</v>
+        <v>0.05846361049715151</v>
       </c>
       <c r="P2">
-        <v>0.1279391038575984</v>
+        <v>0.0596002562356855</v>
       </c>
       <c r="Q2">
-        <v>1107.815513258584</v>
+        <v>413.9530123187948</v>
       </c>
       <c r="R2">
-        <v>9970.339619327255</v>
+        <v>3725.577110869153</v>
       </c>
       <c r="S2">
-        <v>0.02382313350783626</v>
+        <v>0.01253197901065923</v>
       </c>
       <c r="T2">
-        <v>0.02794069552667565</v>
+        <v>0.0129688092251053</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>96.62005599999999</v>
+        <v>89.38217433333334</v>
       </c>
       <c r="H3">
-        <v>289.860168</v>
+        <v>268.146523</v>
       </c>
       <c r="I3">
-        <v>0.2116037895476247</v>
+        <v>0.2143552015363441</v>
       </c>
       <c r="J3">
-        <v>0.2183905833651517</v>
+        <v>0.2175965347165783</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>4.199120000000001</v>
       </c>
       <c r="O3">
-        <v>0.01374397374945266</v>
+        <v>0.01766942965546306</v>
       </c>
       <c r="P3">
-        <v>0.01561853078317749</v>
+        <v>0.01801295756537869</v>
       </c>
       <c r="Q3">
-        <v>135.2397365169067</v>
+        <v>125.1088252955289</v>
       </c>
       <c r="R3">
-        <v>1217.15762865216</v>
+        <v>1125.97942765976</v>
       </c>
       <c r="S3">
-        <v>0.002908276928827258</v>
+        <v>0.00378753415482904</v>
       </c>
       <c r="T3">
-        <v>0.003410940049044712</v>
+        <v>0.003919557146223177</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>96.62005599999999</v>
+        <v>89.38217433333334</v>
       </c>
       <c r="H4">
-        <v>289.860168</v>
+        <v>268.146523</v>
       </c>
       <c r="I4">
-        <v>0.2116037895476247</v>
+        <v>0.2143552015363441</v>
       </c>
       <c r="J4">
-        <v>0.2183905833651517</v>
+        <v>0.2175965347165783</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>26.364677</v>
+        <v>33.32967466666667</v>
       </c>
       <c r="N4">
-        <v>79.094031</v>
+        <v>99.989024</v>
       </c>
       <c r="O4">
-        <v>0.2588795475724425</v>
+        <v>0.4207426855832669</v>
       </c>
       <c r="P4">
-        <v>0.2941884389917637</v>
+        <v>0.428922737696382</v>
       </c>
       <c r="Q4">
-        <v>2547.356568161912</v>
+        <v>2979.078791529284</v>
       </c>
       <c r="R4">
-        <v>22926.20911345721</v>
+        <v>26811.70912376355</v>
       </c>
       <c r="S4">
-        <v>0.0547798933027034</v>
+        <v>0.09018838316314383</v>
       </c>
       <c r="T4">
-        <v>0.06424798481069462</v>
+        <v>0.09333210138388061</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>96.62005599999999</v>
+        <v>89.38217433333334</v>
       </c>
       <c r="H5">
-        <v>289.860168</v>
+        <v>268.146523</v>
       </c>
       <c r="I5">
-        <v>0.2116037895476247</v>
+        <v>0.2143552015363441</v>
       </c>
       <c r="J5">
-        <v>0.2183905833651517</v>
+        <v>0.2175965347165783</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>36.6694545</v>
+        <v>4.5322385</v>
       </c>
       <c r="N5">
-        <v>73.338909</v>
+        <v>9.064477</v>
       </c>
       <c r="O5">
-        <v>0.3600640277401564</v>
+        <v>0.05721346569581108</v>
       </c>
       <c r="P5">
-        <v>0.2727823943638554</v>
+        <v>0.03888387079991788</v>
       </c>
       <c r="Q5">
-        <v>3543.004747279452</v>
+        <v>405.1013317272452</v>
       </c>
       <c r="R5">
-        <v>21258.02848367671</v>
+        <v>2430.607990363471</v>
       </c>
       <c r="S5">
-        <v>0.07619091274959813</v>
+        <v>0.01226400396981829</v>
       </c>
       <c r="T5">
-        <v>0.05957310623686526</v>
+        <v>0.008460995542429276</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>96.62005599999999</v>
+        <v>89.38217433333334</v>
       </c>
       <c r="H6">
-        <v>289.860168</v>
+        <v>268.146523</v>
       </c>
       <c r="I6">
-        <v>0.2116037895476247</v>
+        <v>0.2143552015363441</v>
       </c>
       <c r="J6">
-        <v>0.2183905833651517</v>
+        <v>0.2175965347165783</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>25.94195566666667</v>
+        <v>35.3234</v>
       </c>
       <c r="N6">
-        <v>77.825867</v>
+        <v>105.9702</v>
       </c>
       <c r="O6">
-        <v>0.2547287700938277</v>
+        <v>0.4459108085683075</v>
       </c>
       <c r="P6">
-        <v>0.2894715320036049</v>
+        <v>0.454580177702636</v>
       </c>
       <c r="Q6">
-        <v>2506.513209262851</v>
+        <v>3157.282296846067</v>
       </c>
       <c r="R6">
-        <v>22558.61888336566</v>
+        <v>28415.5406716146</v>
       </c>
       <c r="S6">
-        <v>0.05390157305865957</v>
+        <v>0.09558330123789371</v>
       </c>
       <c r="T6">
-        <v>0.06321785674187146</v>
+        <v>0.09891507141893999</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>367.061969</v>
       </c>
       <c r="I7">
-        <v>0.2679626668787852</v>
+        <v>0.2934277926151677</v>
       </c>
       <c r="J7">
-        <v>0.2765570657541026</v>
+        <v>0.2978648075949286</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>11.465689</v>
+        <v>4.631270333333333</v>
       </c>
       <c r="N7">
-        <v>34.397067</v>
+        <v>13.893811</v>
       </c>
       <c r="O7">
-        <v>0.1125836808441207</v>
+        <v>0.05846361049715151</v>
       </c>
       <c r="P7">
-        <v>0.1279391038575984</v>
+        <v>0.0596002562356855</v>
       </c>
       <c r="Q7">
-        <v>1402.872793427214</v>
+        <v>566.6544025082065</v>
       </c>
       <c r="R7">
-        <v>12625.85514084492</v>
+        <v>5099.889622573858</v>
       </c>
       <c r="S7">
-        <v>0.03016822336602059</v>
+        <v>0.01715484817649211</v>
       </c>
       <c r="T7">
-        <v>0.03538246315806681</v>
+        <v>0.0177528188562509</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>367.061969</v>
       </c>
       <c r="I8">
-        <v>0.2679626668787852</v>
+        <v>0.2934277926151677</v>
       </c>
       <c r="J8">
-        <v>0.2765570657541026</v>
+        <v>0.2978648075949286</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>4.199120000000001</v>
       </c>
       <c r="O8">
-        <v>0.01374397374945266</v>
+        <v>0.01766942965546306</v>
       </c>
       <c r="P8">
-        <v>0.01561853078317749</v>
+        <v>0.01801295756537869</v>
       </c>
       <c r="Q8">
         <v>171.2596950296978</v>
@@ -948,10 +948,10 @@
         <v>1541.33725526728</v>
       </c>
       <c r="S8">
-        <v>0.003682871859415351</v>
+        <v>0.005184701740571509</v>
       </c>
       <c r="T8">
-        <v>0.004319415044785693</v>
+        <v>0.005365426139427138</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>367.061969</v>
       </c>
       <c r="I9">
-        <v>0.2679626668787852</v>
+        <v>0.2934277926151677</v>
       </c>
       <c r="J9">
-        <v>0.2765570657541026</v>
+        <v>0.2978648075949286</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>26.364677</v>
+        <v>33.32967466666667</v>
       </c>
       <c r="N9">
-        <v>79.094031</v>
+        <v>99.989024</v>
       </c>
       <c r="O9">
-        <v>0.2588795475724425</v>
+        <v>0.4207426855832669</v>
       </c>
       <c r="P9">
-        <v>0.2941884389917637</v>
+        <v>0.428922737696382</v>
       </c>
       <c r="Q9">
-        <v>3225.823417223004</v>
+        <v>4078.018669758696</v>
       </c>
       <c r="R9">
-        <v>29032.41075500704</v>
+        <v>36702.16802782825</v>
       </c>
       <c r="S9">
-        <v>0.06937005396788504</v>
+        <v>0.1234575974896755</v>
       </c>
       <c r="T9">
-        <v>0.08135989146634198</v>
+        <v>0.1277609887370228</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>367.061969</v>
       </c>
       <c r="I10">
-        <v>0.2679626668787852</v>
+        <v>0.2934277926151677</v>
       </c>
       <c r="J10">
-        <v>0.2765570657541026</v>
+        <v>0.2978648075949286</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>36.6694545</v>
+        <v>4.5322385</v>
       </c>
       <c r="N10">
-        <v>73.338909</v>
+        <v>9.064477</v>
       </c>
       <c r="O10">
-        <v>0.3600640277401564</v>
+        <v>0.05721346569581108</v>
       </c>
       <c r="P10">
-        <v>0.2727823943638554</v>
+        <v>0.03888387079991788</v>
       </c>
       <c r="Q10">
-        <v>4486.654056975303</v>
+        <v>554.5374625958689</v>
       </c>
       <c r="R10">
-        <v>26919.92434185182</v>
+        <v>3327.224775575213</v>
       </c>
       <c r="S10">
-        <v>0.09648371712036921</v>
+        <v>0.01678802094698546</v>
       </c>
       <c r="T10">
-        <v>0.07543989857464631</v>
+        <v>0.0115821366943636</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>367.061969</v>
       </c>
       <c r="I11">
-        <v>0.2679626668787852</v>
+        <v>0.2934277926151677</v>
       </c>
       <c r="J11">
-        <v>0.2765570657541026</v>
+        <v>0.2978648075949286</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>25.94195566666667</v>
+        <v>35.3234</v>
       </c>
       <c r="N11">
-        <v>77.825867</v>
+        <v>105.9702</v>
       </c>
       <c r="O11">
-        <v>0.2547287700938277</v>
+        <v>0.4459108085683075</v>
       </c>
       <c r="P11">
-        <v>0.2894715320036049</v>
+        <v>0.454580177702636</v>
       </c>
       <c r="Q11">
-        <v>3174.101775572458</v>
+        <v>4321.958918591533</v>
       </c>
       <c r="R11">
-        <v>28566.91598015212</v>
+        <v>38897.6302673238</v>
       </c>
       <c r="S11">
-        <v>0.06825780056509501</v>
+        <v>0.1308426242614431</v>
       </c>
       <c r="T11">
-        <v>0.08005539751026176</v>
+        <v>0.1354034371678641</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>83.74384566666667</v>
+        <v>90.33462533333334</v>
       </c>
       <c r="H12">
-        <v>251.231537</v>
+        <v>271.003876</v>
       </c>
       <c r="I12">
-        <v>0.1834041070557659</v>
+        <v>0.2166393574945233</v>
       </c>
       <c r="J12">
-        <v>0.1892864490617203</v>
+        <v>0.2199152301234996</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>11.465689</v>
+        <v>4.631270333333333</v>
       </c>
       <c r="N12">
-        <v>34.397067</v>
+        <v>13.893811</v>
       </c>
       <c r="O12">
-        <v>0.1125836808441207</v>
+        <v>0.05846361049715151</v>
       </c>
       <c r="P12">
-        <v>0.1279391038575984</v>
+        <v>0.0596002562356855</v>
       </c>
       <c r="Q12">
-        <v>960.1808900779977</v>
+        <v>418.3640703790484</v>
       </c>
       <c r="R12">
-        <v>8641.628010701979</v>
+        <v>3765.276633411436</v>
       </c>
       <c r="S12">
-        <v>0.02064830945426729</v>
+        <v>0.01266551901491297</v>
       </c>
       <c r="T12">
-        <v>0.02421713866534345</v>
+        <v>0.01310700406549032</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>83.74384566666667</v>
+        <v>90.33462533333334</v>
       </c>
       <c r="H13">
-        <v>251.231537</v>
+        <v>271.003876</v>
       </c>
       <c r="I13">
-        <v>0.1834041070557659</v>
+        <v>0.2166393574945233</v>
       </c>
       <c r="J13">
-        <v>0.1892864490617203</v>
+        <v>0.2199152301234996</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>4.199120000000001</v>
       </c>
       <c r="O13">
-        <v>0.01374397374945266</v>
+        <v>0.01766942965546306</v>
       </c>
       <c r="P13">
-        <v>0.01561853078317749</v>
+        <v>0.01801295756537869</v>
       </c>
       <c r="Q13">
-        <v>117.2168190719378</v>
+        <v>126.4419773099022</v>
       </c>
       <c r="R13">
-        <v>1054.95137164744</v>
+        <v>1137.97779578912</v>
       </c>
       <c r="S13">
-        <v>0.002520701232916251</v>
+        <v>0.003827893887854194</v>
       </c>
       <c r="T13">
-        <v>0.002956376231508837</v>
+        <v>0.003961323708195089</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>83.74384566666667</v>
+        <v>90.33462533333334</v>
       </c>
       <c r="H14">
-        <v>251.231537</v>
+        <v>271.003876</v>
       </c>
       <c r="I14">
-        <v>0.1834041070557659</v>
+        <v>0.2166393574945233</v>
       </c>
       <c r="J14">
-        <v>0.1892864490617203</v>
+        <v>0.2199152301234996</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>26.364677</v>
+        <v>33.32967466666667</v>
       </c>
       <c r="N14">
-        <v>79.094031</v>
+        <v>99.989024</v>
       </c>
       <c r="O14">
-        <v>0.2588795475724425</v>
+        <v>0.4207426855832669</v>
       </c>
       <c r="P14">
-        <v>0.2941884389917637</v>
+        <v>0.428922737696382</v>
       </c>
       <c r="Q14">
-        <v>2207.879441739517</v>
+        <v>3010.823673495225</v>
       </c>
       <c r="R14">
-        <v>19870.91497565565</v>
+        <v>27097.41306145702</v>
       </c>
       <c r="S14">
-        <v>0.04747957225752447</v>
+        <v>0.09114942507527915</v>
       </c>
       <c r="T14">
-        <v>0.0556858849717615</v>
+        <v>0.09432664256570131</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>83.74384566666667</v>
+        <v>90.33462533333334</v>
       </c>
       <c r="H15">
-        <v>251.231537</v>
+        <v>271.003876</v>
       </c>
       <c r="I15">
-        <v>0.1834041070557659</v>
+        <v>0.2166393574945233</v>
       </c>
       <c r="J15">
-        <v>0.1892864490617203</v>
+        <v>0.2199152301234996</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>36.6694545</v>
+        <v>4.5322385</v>
       </c>
       <c r="N15">
-        <v>73.338909</v>
+        <v>9.064477</v>
       </c>
       <c r="O15">
-        <v>0.3600640277401564</v>
+        <v>0.05721346569581108</v>
       </c>
       <c r="P15">
-        <v>0.2727823943638554</v>
+        <v>0.03888387079991788</v>
       </c>
       <c r="Q15">
-        <v>3070.841138328856</v>
+        <v>409.4180668188087</v>
       </c>
       <c r="R15">
-        <v>18425.04682997313</v>
+        <v>2456.508400912852</v>
       </c>
       <c r="S15">
-        <v>0.0660372214905859</v>
+        <v>0.01239468844837546</v>
       </c>
       <c r="T15">
-        <v>0.05163401079568803</v>
+        <v>0.008551155395056367</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>83.74384566666667</v>
+        <v>90.33462533333334</v>
       </c>
       <c r="H16">
-        <v>251.231537</v>
+        <v>271.003876</v>
       </c>
       <c r="I16">
-        <v>0.1834041070557659</v>
+        <v>0.2166393574945233</v>
       </c>
       <c r="J16">
-        <v>0.1892864490617203</v>
+        <v>0.2199152301234996</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>25.94195566666667</v>
+        <v>35.3234</v>
       </c>
       <c r="N16">
-        <v>77.825867</v>
+        <v>105.9702</v>
       </c>
       <c r="O16">
-        <v>0.2547287700938277</v>
+        <v>0.4459108085683075</v>
       </c>
       <c r="P16">
-        <v>0.2894715320036049</v>
+        <v>0.454580177702636</v>
       </c>
       <c r="Q16">
-        <v>2172.479131640842</v>
+        <v>3190.926104499467</v>
       </c>
       <c r="R16">
-        <v>19552.31218476758</v>
+        <v>28718.3349404952</v>
       </c>
       <c r="S16">
-        <v>0.04671830262047194</v>
+        <v>0.0966018310681015</v>
       </c>
       <c r="T16">
-        <v>0.0547930383974185</v>
+        <v>0.09996910438905655</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>42.569235</v>
+        <v>18.634161</v>
       </c>
       <c r="H17">
-        <v>85.13847</v>
+        <v>37.268322</v>
       </c>
       <c r="I17">
-        <v>0.09322920951467238</v>
+        <v>0.0446882095496985</v>
       </c>
       <c r="J17">
-        <v>0.06414624078364733</v>
+        <v>0.03024263611988591</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>11.465689</v>
+        <v>4.631270333333333</v>
       </c>
       <c r="N17">
-        <v>34.397067</v>
+        <v>13.893811</v>
       </c>
       <c r="O17">
-        <v>0.1125836808441207</v>
+        <v>0.05846361049715151</v>
       </c>
       <c r="P17">
-        <v>0.1279391038575984</v>
+        <v>0.0596002562356855</v>
       </c>
       <c r="Q17">
-        <v>488.0856094779149</v>
+        <v>86.29983702585699</v>
       </c>
       <c r="R17">
-        <v>2928.51365686749</v>
+        <v>517.799022155142</v>
       </c>
       <c r="S17">
-        <v>0.01049608756934954</v>
+        <v>0.00261263407692866</v>
       </c>
       <c r="T17">
-        <v>0.008206812561693571</v>
+        <v>0.001802468861987798</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>42.569235</v>
+        <v>18.634161</v>
       </c>
       <c r="H18">
-        <v>85.13847</v>
+        <v>37.268322</v>
       </c>
       <c r="I18">
-        <v>0.09322920951467238</v>
+        <v>0.0446882095496985</v>
       </c>
       <c r="J18">
-        <v>0.06414624078364733</v>
+        <v>0.03024263611988591</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>4.199120000000001</v>
       </c>
       <c r="O18">
-        <v>0.01374397374945266</v>
+        <v>0.01766942965546306</v>
       </c>
       <c r="P18">
-        <v>0.01561853078317749</v>
+        <v>0.01801295756537869</v>
       </c>
       <c r="Q18">
-        <v>59.5844420244</v>
+        <v>26.08235937944</v>
       </c>
       <c r="R18">
-        <v>357.5066521464</v>
+        <v>156.49415627664</v>
       </c>
       <c r="S18">
-        <v>0.001281339808251879</v>
+        <v>0.0007896151750669903</v>
       </c>
       <c r="T18">
-        <v>0.001001870036304511</v>
+        <v>0.0005447593210926939</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>42.569235</v>
+        <v>18.634161</v>
       </c>
       <c r="H19">
-        <v>85.13847</v>
+        <v>37.268322</v>
       </c>
       <c r="I19">
-        <v>0.09322920951467238</v>
+        <v>0.0446882095496985</v>
       </c>
       <c r="J19">
-        <v>0.06414624078364733</v>
+        <v>0.03024263611988591</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>26.364677</v>
+        <v>33.32967466666667</v>
       </c>
       <c r="N19">
-        <v>79.094031</v>
+        <v>99.989024</v>
       </c>
       <c r="O19">
-        <v>0.2588795475724425</v>
+        <v>0.4207426855832669</v>
       </c>
       <c r="P19">
-        <v>0.2941884389917637</v>
+        <v>0.428922737696382</v>
       </c>
       <c r="Q19">
-        <v>1122.324130912095</v>
+        <v>621.070523816288</v>
       </c>
       <c r="R19">
-        <v>6733.944785472569</v>
+        <v>3726.423142897728</v>
       </c>
       <c r="S19">
-        <v>0.02413513557969484</v>
+        <v>0.01880223729984794</v>
       </c>
       <c r="T19">
-        <v>0.01887108244333102</v>
+        <v>0.01297175427969695</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>42.569235</v>
+        <v>18.634161</v>
       </c>
       <c r="H20">
-        <v>85.13847</v>
+        <v>37.268322</v>
       </c>
       <c r="I20">
-        <v>0.09322920951467238</v>
+        <v>0.0446882095496985</v>
       </c>
       <c r="J20">
-        <v>0.06414624078364733</v>
+        <v>0.03024263611988591</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>36.6694545</v>
+        <v>4.5322385</v>
       </c>
       <c r="N20">
-        <v>73.338909</v>
+        <v>9.064477</v>
       </c>
       <c r="O20">
-        <v>0.3600640277401564</v>
+        <v>0.05721346569581108</v>
       </c>
       <c r="P20">
-        <v>0.2727823943638554</v>
+        <v>0.03888387079991788</v>
       </c>
       <c r="Q20">
-        <v>1560.990625932307</v>
+        <v>84.4544618993985</v>
       </c>
       <c r="R20">
-        <v>6243.96250372923</v>
+        <v>337.817847597594</v>
       </c>
       <c r="S20">
-        <v>0.03356848468088384</v>
+        <v>0.002556767344078892</v>
       </c>
       <c r="T20">
-        <v>0.01749796515040371</v>
+        <v>0.001175950755534574</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>42.569235</v>
+        <v>18.634161</v>
       </c>
       <c r="H21">
-        <v>85.13847</v>
+        <v>37.268322</v>
       </c>
       <c r="I21">
-        <v>0.09322920951467238</v>
+        <v>0.0446882095496985</v>
       </c>
       <c r="J21">
-        <v>0.06414624078364733</v>
+        <v>0.03024263611988591</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>25.94195566666667</v>
+        <v>35.3234</v>
       </c>
       <c r="N21">
-        <v>77.825867</v>
+        <v>105.9702</v>
       </c>
       <c r="O21">
-        <v>0.2547287700938277</v>
+        <v>0.4459108085683075</v>
       </c>
       <c r="P21">
-        <v>0.2894715320036049</v>
+        <v>0.454580177702636</v>
       </c>
       <c r="Q21">
-        <v>1104.329207133915</v>
+        <v>658.2219226673999</v>
       </c>
       <c r="R21">
-        <v>6625.97524280349</v>
+        <v>3949.3315360044</v>
       </c>
       <c r="S21">
-        <v>0.02374816187649227</v>
+        <v>0.01992695565377602</v>
       </c>
       <c r="T21">
-        <v>0.01856851059191451</v>
+        <v>0.0137477029015739</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>111.321218</v>
+        <v>96.27664699999998</v>
       </c>
       <c r="H22">
-        <v>333.963654</v>
+        <v>288.829941</v>
       </c>
       <c r="I22">
-        <v>0.2438002270031519</v>
+        <v>0.2308894388042666</v>
       </c>
       <c r="J22">
-        <v>0.2516196610353779</v>
+        <v>0.2343807914451077</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>11.465689</v>
+        <v>4.631270333333333</v>
       </c>
       <c r="N22">
-        <v>34.397067</v>
+        <v>13.893811</v>
       </c>
       <c r="O22">
-        <v>0.1125836808441207</v>
+        <v>0.05846361049715151</v>
       </c>
       <c r="P22">
-        <v>0.1279391038575984</v>
+        <v>0.0596002562356855</v>
       </c>
       <c r="Q22">
-        <v>1276.374464689202</v>
+        <v>445.8831790439056</v>
       </c>
       <c r="R22">
-        <v>11487.37018220282</v>
+        <v>4012.94861139515</v>
       </c>
       <c r="S22">
-        <v>0.02744792694664703</v>
+        <v>0.01349863021815854</v>
       </c>
       <c r="T22">
-        <v>0.03219199394581892</v>
+        <v>0.01396915522685118</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>111.321218</v>
+        <v>96.27664699999998</v>
       </c>
       <c r="H23">
-        <v>333.963654</v>
+        <v>288.829941</v>
       </c>
       <c r="I23">
-        <v>0.2438002270031519</v>
+        <v>0.2308894388042666</v>
       </c>
       <c r="J23">
-        <v>0.2516196610353779</v>
+        <v>0.2343807914451077</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>4.199120000000001</v>
       </c>
       <c r="O23">
-        <v>0.01374397374945266</v>
+        <v>0.01766942965546306</v>
       </c>
       <c r="P23">
-        <v>0.01561853078317749</v>
+        <v>0.01801295756537869</v>
       </c>
       <c r="Q23">
-        <v>155.8170509760534</v>
+        <v>134.7590646502133</v>
       </c>
       <c r="R23">
-        <v>1402.35345878448</v>
+        <v>1212.83158185192</v>
       </c>
       <c r="S23">
-        <v>0.003350783920041918</v>
+        <v>0.004079684697141332</v>
       </c>
       <c r="T23">
-        <v>0.003929929421533735</v>
+        <v>0.004221891250440598</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>111.321218</v>
+        <v>96.27664699999998</v>
       </c>
       <c r="H24">
-        <v>333.963654</v>
+        <v>288.829941</v>
       </c>
       <c r="I24">
-        <v>0.2438002270031519</v>
+        <v>0.2308894388042666</v>
       </c>
       <c r="J24">
-        <v>0.2516196610353779</v>
+        <v>0.2343807914451077</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>26.364677</v>
+        <v>33.32967466666667</v>
       </c>
       <c r="N24">
-        <v>79.094031</v>
+        <v>99.989024</v>
       </c>
       <c r="O24">
-        <v>0.2588795475724425</v>
+        <v>0.4207426855832669</v>
       </c>
       <c r="P24">
-        <v>0.2941884389917637</v>
+        <v>0.428922737696382</v>
       </c>
       <c r="Q24">
-        <v>2934.947955816586</v>
+        <v>3208.869322507509</v>
       </c>
       <c r="R24">
-        <v>26414.53160234927</v>
+        <v>28879.82390256758</v>
       </c>
       <c r="S24">
-        <v>0.06311489246463473</v>
+        <v>0.09714504255532047</v>
       </c>
       <c r="T24">
-        <v>0.07402359529963451</v>
+        <v>0.1005312507300803</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>111.321218</v>
+        <v>96.27664699999998</v>
       </c>
       <c r="H25">
-        <v>333.963654</v>
+        <v>288.829941</v>
       </c>
       <c r="I25">
-        <v>0.2438002270031519</v>
+        <v>0.2308894388042666</v>
       </c>
       <c r="J25">
-        <v>0.2516196610353779</v>
+        <v>0.2343807914451077</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>36.6694545</v>
+        <v>4.5322385</v>
       </c>
       <c r="N25">
-        <v>73.338909</v>
+        <v>9.064477</v>
       </c>
       <c r="O25">
-        <v>0.3600640277401564</v>
+        <v>0.05721346569581108</v>
       </c>
       <c r="P25">
-        <v>0.2727823943638554</v>
+        <v>0.03888387079991788</v>
       </c>
       <c r="Q25">
-        <v>4082.088338335581</v>
+        <v>436.3487261843094</v>
       </c>
       <c r="R25">
-        <v>24492.53003001349</v>
+        <v>2618.092357105857</v>
       </c>
       <c r="S25">
-        <v>0.0877836916987193</v>
+        <v>0.01320998498655298</v>
       </c>
       <c r="T25">
-        <v>0.06863741360625207</v>
+        <v>0.009113632412534062</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>111.321218</v>
+        <v>96.27664699999998</v>
       </c>
       <c r="H26">
-        <v>333.963654</v>
+        <v>288.829941</v>
       </c>
       <c r="I26">
-        <v>0.2438002270031519</v>
+        <v>0.2308894388042666</v>
       </c>
       <c r="J26">
-        <v>0.2516196610353779</v>
+        <v>0.2343807914451077</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>25.94195566666667</v>
+        <v>35.3234</v>
       </c>
       <c r="N26">
-        <v>77.825867</v>
+        <v>105.9702</v>
       </c>
       <c r="O26">
-        <v>0.2547287700938277</v>
+        <v>0.4459108085683075</v>
       </c>
       <c r="P26">
-        <v>0.2894715320036049</v>
+        <v>0.454580177702636</v>
       </c>
       <c r="Q26">
-        <v>2887.890102115336</v>
+        <v>3400.818512639799</v>
       </c>
       <c r="R26">
-        <v>25991.01091903802</v>
+        <v>30607.3666137582</v>
       </c>
       <c r="S26">
-        <v>0.06210293197310887</v>
+        <v>0.1029560963470933</v>
       </c>
       <c r="T26">
-        <v>0.07283672876213859</v>
+        <v>0.1065448618252015</v>
       </c>
     </row>
   </sheetData>
